--- a/Resume Jurnal/perhitungan manual metode forecasting.xlsx
+++ b/Resume Jurnal/perhitungan manual metode forecasting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Exponential Smoothing" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="57">
   <si>
     <t>Bulan</t>
   </si>
@@ -217,6 +217,124 @@
   <si>
     <t>SE</t>
   </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Penjualan(Y)</t>
+  </si>
+  <si>
+    <t>Waktu(X)</t>
+  </si>
+  <si>
+    <t>X*Y</t>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mencari Nilai B </t>
+  </si>
+  <si>
+    <t>Mencari Nilai A</t>
+  </si>
+  <si>
+    <t>Mencari Nilai Trend Moment</t>
+  </si>
+  <si>
+    <t>Mei</t>
+  </si>
+  <si>
+    <t>Rata-rata Bulan Yang Akan DiPrediksi</t>
+  </si>
+  <si>
+    <r>
+      <t>∑X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>∑Y</t>
+  </si>
+  <si>
+    <t>∑X</t>
+  </si>
+  <si>
+    <t>∑XY</t>
+  </si>
+  <si>
+    <t>Rumus Persamaan 1 dan 2</t>
+  </si>
+  <si>
+    <t>Persamaan yg telah disubstitusi</t>
+  </si>
+  <si>
+    <t>Persamaan Trend Moment</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
 </sst>
 </file>
 
@@ -226,9 +344,9 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="172" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,8 +416,29 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,8 +469,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -339,11 +484,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -362,26 +559,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,6 +669,125 @@
         <a:xfrm>
           <a:off x="3295650" y="762000"/>
           <a:ext cx="3076575" cy="1384897"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1857039</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7191375" y="1771650"/>
+          <a:ext cx="2685714" cy="476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1814515</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267575" y="2695574"/>
+          <a:ext cx="2566990" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1295312</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="971550"/>
+          <a:ext cx="704762" cy="266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -731,7 +1088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -753,22 +1110,22 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -855,7 +1212,7 @@
         <v>130</v>
       </c>
       <c r="D5" s="7">
-        <f t="shared" ref="D5:D30" si="3">D4+0.9*(C4 - D4)</f>
+        <f t="shared" ref="D5:D27" si="3">D4+0.9*(C4 - D4)</f>
         <v>114</v>
       </c>
       <c r="E5" s="7">
@@ -870,13 +1227,13 @@
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="O5" s="13" t="s">
+      <c r="O5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -904,11 +1261,11 @@
         <f t="shared" si="2"/>
         <v>2.5599999999999818</v>
       </c>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -936,11 +1293,11 @@
         <f t="shared" si="2"/>
         <v>96.825600000000065</v>
       </c>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -968,11 +1325,11 @@
         <f t="shared" si="2"/>
         <v>81.288256000000089</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1000,11 +1357,11 @@
         <f t="shared" si="2"/>
         <v>118.84488256000004</v>
       </c>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1032,11 +1389,11 @@
         <f t="shared" si="2"/>
         <v>571.68044882560014</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1064,11 +1421,11 @@
         <f t="shared" si="2"/>
         <v>57.897124488255955</v>
       </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1096,11 +1453,11 @@
         <f t="shared" si="2"/>
         <v>17.969955244882588</v>
       </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1128,18 +1485,18 @@
         <f t="shared" si="2"/>
         <v>91.70150275244896</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1167,11 +1524,11 @@
         <f t="shared" si="2"/>
         <v>120.06919534752431</v>
       </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1229,18 +1586,18 @@
         <f t="shared" si="2"/>
         <v>112.56310481289485</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="O16" s="10" t="s">
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="O16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1268,14 +1625,14 @@
         <f t="shared" si="2"/>
         <v>257.95435931860851</v>
       </c>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1303,18 +1660,18 @@
         <f t="shared" si="2"/>
         <v>70.457628375153917</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1342,18 +1699,18 @@
         <f t="shared" si="2"/>
         <v>200.52286356645652</v>
       </c>
-      <c r="I19" s="15" t="s">
+      <c r="I19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1381,18 +1738,18 @@
         <f t="shared" si="2"/>
         <v>269.4870573639347</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1420,13 +1777,13 @@
         <f t="shared" si="2"/>
         <v>1471.3663829127679</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="I21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1577,36 +1934,36 @@
         <f t="shared" si="3"/>
         <v>180.7903883583939</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="14">
         <f>SUM(E3:E26)</f>
         <v>84.211542620437655</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="14">
         <f>SUM(F3:F26)</f>
         <v>277.2689507530755</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="15">
         <f>SUM(G3:G26)</f>
         <v>4668.2928019065166</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E28" s="21">
+      <c r="E28" s="17">
         <f>E27/24</f>
         <v>3.5088142758515688</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="17">
         <f>F27/24</f>
         <v>11.552872948044813</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="17">
         <f>G27/24</f>
         <v>194.5122000794382</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1645,12 +2002,1075 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="28"/>
+      <c r="J1" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="28"/>
+      <c r="P1" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="22">
+        <v>2012</v>
+      </c>
+      <c r="D2" s="22">
+        <v>3321</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+      <c r="F2" s="22">
+        <f>D2*E2</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="22">
+        <f>E2^2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="25">
+        <f>SUM(D2:D33)</f>
+        <v>230894</v>
+      </c>
+      <c r="K2" s="25">
+        <f>SUM(E2:E33)</f>
+        <v>496</v>
+      </c>
+      <c r="L2" s="25">
+        <f>SUM(F2:F33)</f>
+        <v>4039384</v>
+      </c>
+      <c r="M2" s="25">
+        <f>SUM(G2:G33)</f>
+        <v>10416</v>
+      </c>
+      <c r="N2" s="28"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="22">
+        <v>2</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2012</v>
+      </c>
+      <c r="D3" s="22">
+        <v>5295</v>
+      </c>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F33" si="0">D3*E3</f>
+        <v>5295</v>
+      </c>
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G33" si="1">E3^2</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="22">
+        <f>AVERAGE(D2:D33)</f>
+        <v>7215.4375</v>
+      </c>
+      <c r="K3" s="22">
+        <f>AVERAGE(E2:E33)</f>
+        <v>15.5</v>
+      </c>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <v>3</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="22">
+        <v>2012</v>
+      </c>
+      <c r="D4" s="22">
+        <v>4758</v>
+      </c>
+      <c r="E4" s="22">
+        <v>2</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="0"/>
+        <v>9516</v>
+      </c>
+      <c r="G4" s="22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="26"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>4</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="22">
+        <v>2012</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4544</v>
+      </c>
+      <c r="E5" s="22">
+        <v>3</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="0"/>
+        <v>13632</v>
+      </c>
+      <c r="G5" s="22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D6" s="22">
+        <v>6249</v>
+      </c>
+      <c r="E6" s="22">
+        <v>4</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="0"/>
+        <v>24996</v>
+      </c>
+      <c r="G6" s="22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="H6" s="26"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="36"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D7" s="22">
+        <v>6767</v>
+      </c>
+      <c r="E7" s="22">
+        <v>5</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>33835</v>
+      </c>
+      <c r="G7" s="22">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="H7" s="26"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="36"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>7</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D8" s="22">
+        <v>4230</v>
+      </c>
+      <c r="E8" s="22">
+        <v>6</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>25380</v>
+      </c>
+      <c r="G8" s="22">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>8</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D9" s="22">
+        <v>4674</v>
+      </c>
+      <c r="E9" s="22">
+        <v>7</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>32718</v>
+      </c>
+      <c r="G9" s="22">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>9</v>
+      </c>
+      <c r="B10" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D10" s="22">
+        <v>5094</v>
+      </c>
+      <c r="E10" s="22">
+        <v>8</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>40752</v>
+      </c>
+      <c r="G10" s="22">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>10</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5258</v>
+      </c>
+      <c r="E11" s="22">
+        <v>9</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>47322</v>
+      </c>
+      <c r="G11" s="22">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>11</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D12" s="22">
+        <v>5659</v>
+      </c>
+      <c r="E12" s="22">
+        <v>10</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>56590</v>
+      </c>
+      <c r="G12" s="22">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>12</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D13" s="22">
+        <v>4915</v>
+      </c>
+      <c r="E13" s="22">
+        <v>11</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>54065</v>
+      </c>
+      <c r="G13" s="22">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>13</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D14" s="22">
+        <v>6056</v>
+      </c>
+      <c r="E14" s="22">
+        <v>12</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="0"/>
+        <v>72672</v>
+      </c>
+      <c r="G14" s="22">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="N14" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D15" s="22">
+        <v>8382</v>
+      </c>
+      <c r="E15" s="22">
+        <v>13</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" si="0"/>
+        <v>108966</v>
+      </c>
+      <c r="G15" s="22">
+        <f t="shared" si="1"/>
+        <v>169</v>
+      </c>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="22">
+        <v>8610</v>
+      </c>
+      <c r="E16" s="22">
+        <v>14</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="0"/>
+        <v>120540</v>
+      </c>
+      <c r="G16" s="22">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>16</v>
+      </c>
+      <c r="B17" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="22">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="22">
+        <v>9557</v>
+      </c>
+      <c r="E17" s="22">
+        <v>15</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="0"/>
+        <v>143355</v>
+      </c>
+      <c r="G17" s="22">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>17</v>
+      </c>
+      <c r="B18" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D18" s="22">
+        <v>10157</v>
+      </c>
+      <c r="E18" s="22">
+        <v>16</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="0"/>
+        <v>162512</v>
+      </c>
+      <c r="G18" s="22">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>18</v>
+      </c>
+      <c r="B19" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D19" s="22">
+        <v>9158</v>
+      </c>
+      <c r="E19" s="22">
+        <v>17</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="0"/>
+        <v>155686</v>
+      </c>
+      <c r="G19" s="22">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>19</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D20" s="22">
+        <v>9144</v>
+      </c>
+      <c r="E20" s="22">
+        <v>18</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="0"/>
+        <v>164592</v>
+      </c>
+      <c r="G20" s="22">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="22">
+        <v>20</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D21" s="22">
+        <v>6315</v>
+      </c>
+      <c r="E21" s="22">
+        <v>19</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" si="0"/>
+        <v>119985</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="1"/>
+        <v>361</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D22" s="22">
+        <v>6036</v>
+      </c>
+      <c r="E22" s="22">
+        <v>20</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="0"/>
+        <v>120720</v>
+      </c>
+      <c r="G22" s="22">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="22">
+        <v>22</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D23" s="22">
+        <v>7624</v>
+      </c>
+      <c r="E23" s="22">
+        <v>21</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="0"/>
+        <v>160104</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="1"/>
+        <v>441</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="22">
+        <v>23</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D24" s="22">
+        <v>10906</v>
+      </c>
+      <c r="E24" s="22">
+        <v>22</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="0"/>
+        <v>239932</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="1"/>
+        <v>484</v>
+      </c>
+      <c r="H24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="22">
+        <v>24</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D25" s="22">
+        <v>5460</v>
+      </c>
+      <c r="E25" s="22">
+        <v>23</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="0"/>
+        <v>125580</v>
+      </c>
+      <c r="G25" s="22">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="H25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>25</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D26" s="22">
+        <v>8111</v>
+      </c>
+      <c r="E26" s="22">
+        <v>24</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="0"/>
+        <v>194664</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="1"/>
+        <v>576</v>
+      </c>
+      <c r="H26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="22">
+        <v>26</v>
+      </c>
+      <c r="B27" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D27" s="22">
+        <v>6283</v>
+      </c>
+      <c r="E27" s="22">
+        <v>25</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="0"/>
+        <v>157075</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="H27" s="26"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="22">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="22">
+        <v>10430</v>
+      </c>
+      <c r="E28" s="22">
+        <v>26</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="0"/>
+        <v>271180</v>
+      </c>
+      <c r="G28" s="22">
+        <f t="shared" si="1"/>
+        <v>676</v>
+      </c>
+      <c r="H28" s="26"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="22">
+        <v>2014</v>
+      </c>
+      <c r="D29" s="22">
+        <v>12490</v>
+      </c>
+      <c r="E29" s="22">
+        <v>27</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="0"/>
+        <v>337230</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="1"/>
+        <v>729</v>
+      </c>
+      <c r="H29" s="26"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D30" s="22">
+        <v>9985</v>
+      </c>
+      <c r="E30" s="22">
+        <v>28</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="0"/>
+        <v>279580</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="1"/>
+        <v>784</v>
+      </c>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="22">
+        <v>30</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D31" s="22">
+        <v>9260</v>
+      </c>
+      <c r="E31" s="22">
+        <v>29</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="0"/>
+        <v>268540</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+      <c r="H31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="22">
+        <v>31</v>
+      </c>
+      <c r="B32" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="22">
+        <v>8776</v>
+      </c>
+      <c r="E32" s="22">
+        <v>30</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="0"/>
+        <v>263280</v>
+      </c>
+      <c r="G32" s="22">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="22">
+        <v>32</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="22">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="22">
+        <v>7390</v>
+      </c>
+      <c r="E33" s="22">
+        <v>31</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="0"/>
+        <v>229090</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" si="1"/>
+        <v>961</v>
+      </c>
+      <c r="H33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="22">
+        <v>33</v>
+      </c>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="22">
+        <v>34</v>
+      </c>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="22">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I20:L20"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Resume Jurnal/perhitungan manual metode forecasting.xlsx
+++ b/Resume Jurnal/perhitungan manual metode forecasting.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Single Exponential Smoothing" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="85">
   <si>
     <t>Bulan</t>
   </si>
@@ -413,6 +413,27 @@
   <si>
     <t>Forecast α = 0,90</t>
   </si>
+  <si>
+    <t>Double Exponential Smoothing</t>
+  </si>
+  <si>
+    <t>Double Exp S</t>
+  </si>
+  <si>
+    <t>Nilai a</t>
+  </si>
+  <si>
+    <t>Nilai b</t>
+  </si>
+  <si>
+    <t>Forecast St+m = at+btm(bila m= 1)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Single Exp S α = 0,20</t>
+  </si>
 </sst>
 </file>
 
@@ -662,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -730,6 +751,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -742,22 +768,28 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,41 +801,43 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="17" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1697,11 +1731,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405975824"/>
-        <c:axId val="405976216"/>
+        <c:axId val="585850992"/>
+        <c:axId val="585850432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405975824"/>
+        <c:axId val="585850992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1758,12 +1792,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405976216"/>
+        <c:crossAx val="585850432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405976216"/>
+        <c:axId val="585850432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405975824"/>
+        <c:crossAx val="585850992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1916,6 +1950,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Double</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Exponential Smoothing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1957,11 +2021,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Trend Moment'!$D$1</c:f>
+              <c:f>'Double Exponential Smoothing'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Penjualan(Y)</c:v>
+                  <c:v>Penjualan</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1976,223 +2040,377 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>'Trend Moment'!$B$2:$C$33</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>'Trend Moment'!$B$2:$B$33</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>'Trend Moment'!$B$2:$B$33</c:f>
-              <c:strCache>
-                <c:ptCount val="32"/>
+            <c:numRef>
+              <c:f>'Double Exponential Smoothing'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>September</c:v>
+                  <c:v>43466</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>October</c:v>
+                  <c:v>43497</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>November</c:v>
+                  <c:v>43525</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>December</c:v>
+                  <c:v>43556</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>January</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>February</c:v>
+                  <c:v>43617</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>March</c:v>
+                  <c:v>43647</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>April</c:v>
+                  <c:v>43678</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>May</c:v>
+                  <c:v>43709</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>June</c:v>
+                  <c:v>43739</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>July</c:v>
+                  <c:v>43770</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>August</c:v>
+                  <c:v>43800</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>September</c:v>
+                  <c:v>43831</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>October</c:v>
+                  <c:v>43862</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>November</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>December</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>January</c:v>
+                  <c:v>43952</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>February</c:v>
+                  <c:v>43983</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>March</c:v>
+                  <c:v>44013</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>April</c:v>
+                  <c:v>44044</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>May</c:v>
+                  <c:v>44075</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>June</c:v>
+                  <c:v>44105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>July</c:v>
+                  <c:v>44136</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>August</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>September</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>October</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>November</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>December</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>January</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>February</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>March</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>April</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>44166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Trend Moment'!$D$2:$D$33</c:f>
+              <c:f>'Double Exponential Smoothing'!$B$3:$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>3321</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5295</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4758</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4544</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6249</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6767</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4230</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4674</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5094</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5258</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5659</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4915</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6056</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8382</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8610</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9557</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10157</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9158</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6315</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6036</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7624</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>10906</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5460</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8111</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6283</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>10430</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>12490</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9985</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9260</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>8776</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7390</c:v>
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Double Exponential Smoothing'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Forecast St+m = at+btm(bila m= 1)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Double Exponential Smoothing'!$A$3:$A$26</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>43466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43617</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43678</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43709</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43739</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43770</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Double Exponential Smoothing'!$G$3:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="1">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>115.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>137.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>119.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>168.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>124.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>174.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>159.99999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2207,19 +2425,20 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="405800608"/>
-        <c:axId val="405800216"/>
+        <c:axId val="589224256"/>
+        <c:axId val="589220336"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="405800608"/>
+      <c:dateAx>
+        <c:axId val="589224256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2255,15 +2474,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405800216"/>
+        <c:crossAx val="589220336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="405800216"/>
+        <c:axId val="589220336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2314,7 +2532,501 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405800608"/>
+        <c:crossAx val="589224256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Trend Moment'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Penjualan(Y)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Trend Moment'!$B$2:$C$33</c15:sqref>
+                  </c15:fullRef>
+                  <c15:levelRef>
+                    <c15:sqref>'Trend Moment'!$B$2:$B$33</c15:sqref>
+                  </c15:levelRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Trend Moment'!$B$2:$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>April</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>June</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>July</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>August</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>September</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>October</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>November</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>December</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>March</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>April</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Trend Moment'!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>3321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5295</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6767</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4230</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4674</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5258</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4915</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8382</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8610</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9557</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9158</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6315</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6036</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7624</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10906</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8111</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6283</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10430</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12490</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9985</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9260</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8776</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7390</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="585847632"/>
+        <c:axId val="585847072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="585847632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585847072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="585847072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="585847632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2404,6 +3116,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2960,6 +3712,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3550,6 +4805,41 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -3986,8 +5276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4005,34 +5295,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="41" t="s">
         <v>77</v>
       </c>
       <c r="G2" s="11" t="s">
@@ -4049,7 +5339,7 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="42">
         <v>43466</v>
       </c>
       <c r="C3" s="18">
@@ -4069,7 +5359,7 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="42">
         <v>43497</v>
       </c>
       <c r="C4" s="18">
@@ -4081,7 +5371,7 @@
       <c r="E4" s="18">
         <v>105</v>
       </c>
-      <c r="F4" s="66">
+      <c r="F4" s="43">
         <v>105</v>
       </c>
       <c r="G4" s="7">
@@ -4117,7 +5407,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="65">
+      <c r="B5" s="42">
         <v>43525</v>
       </c>
       <c r="C5" s="18">
@@ -4131,7 +5421,7 @@
         <f>0.5*C4 +( (1-0.5)*E4)</f>
         <v>110</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="43">
         <f>0.9*C4 +( (1-0.9)*F4)</f>
         <v>114</v>
       </c>
@@ -4147,19 +5437,19 @@
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="65">
+      <c r="B6" s="42">
         <v>43556</v>
       </c>
       <c r="C6" s="18">
@@ -4170,11 +5460,11 @@
         <v>108.4</v>
       </c>
       <c r="E6" s="18">
-        <f t="shared" ref="E6:E27" si="4">0.5*C5 +( (1-0.5)*E5)</f>
+        <f t="shared" ref="E6:E26" si="4">0.5*C5 +( (1-0.5)*E5)</f>
         <v>120</v>
       </c>
-      <c r="F6" s="66">
-        <f t="shared" ref="F6:F26" si="5">0.9*C5 +( (1-0.9)*F5)</f>
+      <c r="F6" s="43">
+        <f t="shared" ref="F6:F25" si="5">0.9*C5 +( (1-0.9)*F5)</f>
         <v>128.4</v>
       </c>
       <c r="G6" s="6">
@@ -4189,17 +5479,17 @@
         <f t="shared" si="2"/>
         <v>2.5599999999999818</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="42">
         <v>43586</v>
       </c>
       <c r="C7" s="18">
@@ -4213,7 +5503,7 @@
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="F7" s="66">
+      <c r="F7" s="43">
         <f t="shared" si="5"/>
         <v>129.84</v>
       </c>
@@ -4229,17 +5519,17 @@
         <f t="shared" si="2"/>
         <v>96.825600000000065</v>
       </c>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="65">
+      <c r="B8" s="42">
         <v>43617</v>
       </c>
       <c r="C8" s="18">
@@ -4253,7 +5543,7 @@
         <f t="shared" si="4"/>
         <v>122.5</v>
       </c>
-      <c r="F8" s="66">
+      <c r="F8" s="43">
         <f t="shared" si="5"/>
         <v>120.98399999999999</v>
       </c>
@@ -4269,17 +5559,17 @@
         <f t="shared" si="2"/>
         <v>81.288256000000089</v>
       </c>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="65">
+      <c r="B9" s="42">
         <v>43647</v>
       </c>
       <c r="C9" s="18">
@@ -4293,7 +5583,7 @@
         <f t="shared" si="4"/>
         <v>126.25</v>
       </c>
-      <c r="F9" s="66">
+      <c r="F9" s="43">
         <f t="shared" si="5"/>
         <v>129.0984</v>
       </c>
@@ -4309,17 +5599,17 @@
         <f t="shared" si="2"/>
         <v>118.84488256000004</v>
       </c>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="42">
         <v>43678</v>
       </c>
       <c r="C10" s="18">
@@ -4333,7 +5623,7 @@
         <f t="shared" si="4"/>
         <v>133.125</v>
       </c>
-      <c r="F10" s="66">
+      <c r="F10" s="43">
         <f t="shared" si="5"/>
         <v>138.90984</v>
       </c>
@@ -4349,17 +5639,17 @@
         <f t="shared" si="2"/>
         <v>571.68044882560014</v>
       </c>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="42">
         <v>43709</v>
       </c>
       <c r="C11" s="18">
@@ -4373,7 +5663,7 @@
         <f t="shared" si="4"/>
         <v>124.0625</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="43">
         <f t="shared" si="5"/>
         <v>117.390984</v>
       </c>
@@ -4389,17 +5679,17 @@
         <f t="shared" si="2"/>
         <v>57.897124488255955</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="43"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="65">
+      <c r="B12" s="42">
         <v>43739</v>
       </c>
       <c r="C12" s="18">
@@ -4413,7 +5703,7 @@
         <f t="shared" si="4"/>
         <v>124.53125</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="43">
         <f t="shared" si="5"/>
         <v>124.2390984</v>
       </c>
@@ -4429,17 +5719,17 @@
         <f t="shared" si="2"/>
         <v>17.969955244882588</v>
       </c>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="42">
         <v>43770</v>
       </c>
       <c r="C13" s="18">
@@ -4453,7 +5743,7 @@
         <f t="shared" si="4"/>
         <v>122.265625</v>
       </c>
-      <c r="F13" s="66">
+      <c r="F13" s="43">
         <f t="shared" si="5"/>
         <v>120.42390983999999</v>
       </c>
@@ -4469,24 +5759,24 @@
         <f t="shared" si="2"/>
         <v>91.70150275244896</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="42">
         <v>43800</v>
       </c>
       <c r="C14" s="18">
@@ -4500,7 +5790,7 @@
         <f t="shared" si="4"/>
         <v>126.1328125</v>
       </c>
-      <c r="F14" s="66">
+      <c r="F14" s="43">
         <f t="shared" si="5"/>
         <v>129.04239098400001</v>
       </c>
@@ -4516,17 +5806,17 @@
         <f t="shared" si="2"/>
         <v>120.06919534752431</v>
       </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="42">
         <v>43831</v>
       </c>
       <c r="C15" s="18">
@@ -4540,7 +5830,7 @@
         <f t="shared" si="4"/>
         <v>133.06640625</v>
       </c>
-      <c r="F15" s="66">
+      <c r="F15" s="43">
         <f t="shared" si="5"/>
         <v>138.90423909840001</v>
       </c>
@@ -4564,7 +5854,7 @@
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="42">
         <v>43862</v>
       </c>
       <c r="C16" s="18">
@@ -4578,7 +5868,7 @@
         <f t="shared" si="4"/>
         <v>139.033203125</v>
       </c>
-      <c r="F16" s="66">
+      <c r="F16" s="43">
         <f t="shared" si="5"/>
         <v>144.39042390984</v>
       </c>
@@ -4594,24 +5884,24 @@
         <f t="shared" si="2"/>
         <v>112.56310481289485</v>
       </c>
-      <c r="K16" s="44" t="s">
+      <c r="K16" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="Q16" s="41" t="s">
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="Q16" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="65">
+      <c r="B17" s="42">
         <v>43891</v>
       </c>
       <c r="C17" s="18">
@@ -4625,7 +5915,7 @@
         <f t="shared" si="4"/>
         <v>147.0166015625</v>
       </c>
-      <c r="F17" s="66">
+      <c r="F17" s="43">
         <f t="shared" si="5"/>
         <v>153.93904239098399</v>
       </c>
@@ -4641,20 +5931,20 @@
         <f t="shared" si="2"/>
         <v>257.95435931860942</v>
       </c>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="65">
+      <c r="B18" s="42">
         <v>43922</v>
       </c>
       <c r="C18" s="18">
@@ -4668,7 +5958,7 @@
         <f t="shared" si="4"/>
         <v>158.50830078125</v>
       </c>
-      <c r="F18" s="66">
+      <c r="F18" s="43">
         <f t="shared" si="5"/>
         <v>168.39390423909839</v>
       </c>
@@ -4691,17 +5981,17 @@
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="65">
+      <c r="B19" s="42">
         <v>43952</v>
       </c>
       <c r="C19" s="18">
@@ -4715,7 +6005,7 @@
         <f t="shared" si="4"/>
         <v>159.254150390625</v>
       </c>
-      <c r="F19" s="66">
+      <c r="F19" s="43">
         <f t="shared" si="5"/>
         <v>160.83939042390983</v>
       </c>
@@ -4738,17 +6028,17 @@
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="65">
+      <c r="B20" s="42">
         <v>43983</v>
       </c>
       <c r="C20" s="18">
@@ -4762,7 +6052,7 @@
         <f t="shared" si="4"/>
         <v>167.1270751953125</v>
       </c>
-      <c r="F20" s="66">
+      <c r="F20" s="43">
         <f t="shared" si="5"/>
         <v>173.58393904239097</v>
       </c>
@@ -4785,17 +6075,17 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="65">
+      <c r="B21" s="42">
         <v>44013</v>
       </c>
       <c r="C21" s="18">
@@ -4809,7 +6099,7 @@
         <f t="shared" si="4"/>
         <v>178.56353759765625</v>
       </c>
-      <c r="F21" s="66">
+      <c r="F21" s="43">
         <f t="shared" si="5"/>
         <v>188.35839390423911</v>
       </c>
@@ -4837,7 +6127,7 @@
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="65">
+      <c r="B22" s="42">
         <v>44044</v>
       </c>
       <c r="C22" s="18">
@@ -4851,7 +6141,7 @@
         <f t="shared" si="4"/>
         <v>164.28176879882812</v>
       </c>
-      <c r="F22" s="66">
+      <c r="F22" s="43">
         <f t="shared" si="5"/>
         <v>153.8358393904239</v>
       </c>
@@ -4875,7 +6165,7 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="65">
+      <c r="B23" s="42">
         <v>44075</v>
       </c>
       <c r="C23" s="18">
@@ -4889,7 +6179,7 @@
         <f t="shared" si="4"/>
         <v>164.64088439941406</v>
       </c>
-      <c r="F23" s="66">
+      <c r="F23" s="43">
         <f t="shared" si="5"/>
         <v>163.88358393904238</v>
       </c>
@@ -4913,7 +6203,7 @@
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="65">
+      <c r="B24" s="42">
         <v>44105</v>
       </c>
       <c r="C24" s="18">
@@ -4927,7 +6217,7 @@
         <f t="shared" si="4"/>
         <v>162.32044219970703</v>
       </c>
-      <c r="F24" s="66">
+      <c r="F24" s="43">
         <f t="shared" si="5"/>
         <v>160.38835839390424</v>
       </c>
@@ -4948,7 +6238,7 @@
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="65">
+      <c r="B25" s="42">
         <v>44136</v>
       </c>
       <c r="C25" s="18">
@@ -4962,7 +6252,7 @@
         <f t="shared" si="4"/>
         <v>166.16022109985352</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="43">
         <f t="shared" si="5"/>
         <v>169.03883583939043</v>
       </c>
@@ -4983,7 +6273,7 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="65">
+      <c r="B26" s="42">
         <v>44166</v>
       </c>
       <c r="C26" s="18">
@@ -4997,7 +6287,7 @@
         <f t="shared" si="4"/>
         <v>178.08011054992676</v>
       </c>
-      <c r="F26" s="66">
+      <c r="F26" s="43">
         <f>0.9*C25 +( (1-0.9)*F25)</f>
         <v>187.90388358393903</v>
       </c>
@@ -5096,13 +6386,1022 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="42">
+        <v>43466</v>
+      </c>
+      <c r="B3" s="18">
+        <v>105</v>
+      </c>
+      <c r="C3" s="18">
+        <v>105</v>
+      </c>
+      <c r="D3" s="18">
+        <v>105</v>
+      </c>
+      <c r="E3" s="18">
+        <v>105</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="42">
+        <v>43497</v>
+      </c>
+      <c r="B4" s="18">
+        <v>115</v>
+      </c>
+      <c r="C4" s="18">
+        <f>0.2*B4 +( (1-0.2)*B3)</f>
+        <v>107</v>
+      </c>
+      <c r="D4" s="18">
+        <f>0.2*C4 +( (1-0.2)*C3)</f>
+        <v>105.4</v>
+      </c>
+      <c r="E4" s="43">
+        <f>(2*C4)-D4</f>
+        <v>108.6</v>
+      </c>
+      <c r="F4" s="68">
+        <f>(0.2/0.8)*(C4-D4)</f>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="G4" s="43">
+        <f>E4+F4</f>
+        <v>109</v>
+      </c>
+      <c r="H4" s="43">
+        <f t="shared" ref="H4:H26" si="0">B4-E4</f>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="I4" s="43">
+        <f t="shared" ref="I4:I26" si="1">ABS(H4)</f>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="J4" s="43">
+        <f t="shared" ref="J4:J26" si="2">H4^2</f>
+        <v>40.960000000000072</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="42">
+        <v>43525</v>
+      </c>
+      <c r="B5" s="18">
+        <v>130</v>
+      </c>
+      <c r="C5" s="18">
+        <f t="shared" ref="C5:D26" si="3">0.2*B5 +( (1-0.2)*B4)</f>
+        <v>118</v>
+      </c>
+      <c r="D5" s="18">
+        <f t="shared" si="3"/>
+        <v>109.20000000000002</v>
+      </c>
+      <c r="E5" s="43">
+        <f t="shared" ref="E5:E26" si="4">(2*C5)-D5</f>
+        <v>126.79999999999998</v>
+      </c>
+      <c r="F5" s="68">
+        <f t="shared" ref="F5:F26" si="5">(0.2/0.8)*(C5-D5)</f>
+        <v>2.1999999999999957</v>
+      </c>
+      <c r="G5" s="43">
+        <f>E5+F5</f>
+        <v>128.99999999999997</v>
+      </c>
+      <c r="H5" s="43">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="I5" s="43">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="J5" s="43">
+        <f t="shared" si="2"/>
+        <v>10.240000000000109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="42">
+        <v>43556</v>
+      </c>
+      <c r="B6" s="18">
+        <v>130</v>
+      </c>
+      <c r="C6" s="18">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="D6" s="18">
+        <f t="shared" si="3"/>
+        <v>120.4</v>
+      </c>
+      <c r="E6" s="43">
+        <f t="shared" si="4"/>
+        <v>139.6</v>
+      </c>
+      <c r="F6" s="68">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="G6" s="43">
+        <f t="shared" ref="G6:G26" si="6">E6+F6</f>
+        <v>142</v>
+      </c>
+      <c r="H6" s="68">
+        <f t="shared" si="0"/>
+        <v>-9.5999999999999943</v>
+      </c>
+      <c r="I6" s="43">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="J6" s="43">
+        <f t="shared" si="2"/>
+        <v>92.159999999999897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="42">
+        <v>43586</v>
+      </c>
+      <c r="B7" s="18">
+        <v>120</v>
+      </c>
+      <c r="C7" s="18">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="D7" s="18">
+        <f t="shared" si="3"/>
+        <v>129.6</v>
+      </c>
+      <c r="E7" s="43">
+        <f t="shared" si="4"/>
+        <v>126.4</v>
+      </c>
+      <c r="F7" s="68">
+        <f t="shared" si="5"/>
+        <v>-0.39999999999999858</v>
+      </c>
+      <c r="G7" s="43">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
+      <c r="H7" s="69">
+        <f>B7-E7</f>
+        <v>-6.4000000000000057</v>
+      </c>
+      <c r="I7" s="43">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="J7" s="43">
+        <f t="shared" si="2"/>
+        <v>40.960000000000072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="42">
+        <v>43617</v>
+      </c>
+      <c r="B8" s="18">
+        <v>130</v>
+      </c>
+      <c r="C8" s="18">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="D8" s="18">
+        <f t="shared" si="3"/>
+        <v>126.80000000000001</v>
+      </c>
+      <c r="E8" s="43">
+        <f t="shared" si="4"/>
+        <v>117.19999999999999</v>
+      </c>
+      <c r="F8" s="68">
+        <f t="shared" si="5"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="G8" s="43">
+        <f t="shared" si="6"/>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="H8" s="70">
+        <f t="shared" si="0"/>
+        <v>12.800000000000011</v>
+      </c>
+      <c r="I8" s="43">
+        <f t="shared" si="1"/>
+        <v>12.800000000000011</v>
+      </c>
+      <c r="J8" s="43">
+        <f t="shared" si="2"/>
+        <v>163.84000000000029</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="42">
+        <v>43647</v>
+      </c>
+      <c r="B9" s="18">
+        <v>140</v>
+      </c>
+      <c r="C9" s="18">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="D9" s="18">
+        <f t="shared" si="3"/>
+        <v>124.00000000000001</v>
+      </c>
+      <c r="E9" s="43">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F9" s="68">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999964</v>
+      </c>
+      <c r="G9" s="43">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="H9" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="42">
+        <v>43678</v>
+      </c>
+      <c r="B10" s="18">
+        <v>115</v>
+      </c>
+      <c r="C10" s="18">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="D10" s="18">
+        <f t="shared" si="3"/>
+        <v>132.60000000000002</v>
+      </c>
+      <c r="E10" s="43">
+        <f t="shared" si="4"/>
+        <v>137.39999999999998</v>
+      </c>
+      <c r="F10" s="68">
+        <f t="shared" si="5"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="G10" s="43">
+        <f t="shared" si="6"/>
+        <v>137.99999999999997</v>
+      </c>
+      <c r="H10" s="71">
+        <f t="shared" si="0"/>
+        <v>-22.399999999999977</v>
+      </c>
+      <c r="I10" s="43">
+        <f t="shared" si="1"/>
+        <v>22.399999999999977</v>
+      </c>
+      <c r="J10" s="43">
+        <f t="shared" si="2"/>
+        <v>501.75999999999897</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="42">
+        <v>43709</v>
+      </c>
+      <c r="B11" s="18">
+        <v>125</v>
+      </c>
+      <c r="C11" s="18">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" si="3"/>
+        <v>131.4</v>
+      </c>
+      <c r="E11" s="43">
+        <f t="shared" si="4"/>
+        <v>102.6</v>
+      </c>
+      <c r="F11" s="68">
+        <f t="shared" si="5"/>
+        <v>-3.6000000000000014</v>
+      </c>
+      <c r="G11" s="43">
+        <f t="shared" si="6"/>
+        <v>99</v>
+      </c>
+      <c r="H11" s="71">
+        <f t="shared" si="0"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="I11" s="43">
+        <f t="shared" si="1"/>
+        <v>22.400000000000006</v>
+      </c>
+      <c r="J11" s="43">
+        <f t="shared" si="2"/>
+        <v>501.76000000000028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="42">
+        <v>43739</v>
+      </c>
+      <c r="B12" s="18">
+        <v>120</v>
+      </c>
+      <c r="C12" s="18">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="D12" s="18">
+        <f t="shared" si="3"/>
+        <v>118.4</v>
+      </c>
+      <c r="E12" s="43">
+        <f t="shared" si="4"/>
+        <v>129.6</v>
+      </c>
+      <c r="F12" s="68">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999986</v>
+      </c>
+      <c r="G12" s="43">
+        <f t="shared" si="6"/>
+        <v>131</v>
+      </c>
+      <c r="H12" s="71">
+        <f t="shared" si="0"/>
+        <v>-9.5999999999999943</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999943</v>
+      </c>
+      <c r="J12" s="43">
+        <f t="shared" si="2"/>
+        <v>92.159999999999897</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="42">
+        <v>43770</v>
+      </c>
+      <c r="B13" s="18">
+        <v>130</v>
+      </c>
+      <c r="C13" s="18">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" si="3"/>
+        <v>123.60000000000001</v>
+      </c>
+      <c r="E13" s="43">
+        <f t="shared" si="4"/>
+        <v>120.39999999999999</v>
+      </c>
+      <c r="F13" s="68">
+        <f t="shared" si="5"/>
+        <v>-0.40000000000000213</v>
+      </c>
+      <c r="G13" s="43">
+        <f t="shared" si="6"/>
+        <v>119.99999999999999</v>
+      </c>
+      <c r="H13" s="71">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000085</v>
+      </c>
+      <c r="I13" s="43">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000085</v>
+      </c>
+      <c r="J13" s="43">
+        <f t="shared" si="2"/>
+        <v>92.160000000000167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="42">
+        <v>43800</v>
+      </c>
+      <c r="B14" s="18">
+        <v>140</v>
+      </c>
+      <c r="C14" s="18">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="D14" s="18">
+        <f t="shared" si="3"/>
+        <v>124.00000000000001</v>
+      </c>
+      <c r="E14" s="43">
+        <f t="shared" si="4"/>
+        <v>140</v>
+      </c>
+      <c r="F14" s="68">
+        <f t="shared" si="5"/>
+        <v>1.9999999999999964</v>
+      </c>
+      <c r="G14" s="43">
+        <f t="shared" si="6"/>
+        <v>142</v>
+      </c>
+      <c r="H14" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="42">
+        <v>43831</v>
+      </c>
+      <c r="B15" s="18">
+        <v>145</v>
+      </c>
+      <c r="C15" s="18">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="D15" s="18">
+        <f t="shared" si="3"/>
+        <v>133.80000000000001</v>
+      </c>
+      <c r="E15" s="43">
+        <f t="shared" si="4"/>
+        <v>148.19999999999999</v>
+      </c>
+      <c r="F15" s="68">
+        <f t="shared" si="5"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="G15" s="43">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="H15" s="71">
+        <f t="shared" si="0"/>
+        <v>-3.1999999999999886</v>
+      </c>
+      <c r="I15" s="43">
+        <f t="shared" si="1"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="J15" s="43">
+        <f t="shared" si="2"/>
+        <v>10.239999999999927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="42">
+        <v>43862</v>
+      </c>
+      <c r="B16" s="18">
+        <v>155</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="D16" s="18">
+        <f t="shared" si="3"/>
+        <v>142.20000000000002</v>
+      </c>
+      <c r="E16" s="43">
+        <f t="shared" si="4"/>
+        <v>151.79999999999998</v>
+      </c>
+      <c r="F16" s="68">
+        <f t="shared" si="5"/>
+        <v>1.1999999999999957</v>
+      </c>
+      <c r="G16" s="43">
+        <f t="shared" si="6"/>
+        <v>152.99999999999997</v>
+      </c>
+      <c r="H16" s="71">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="I16" s="43">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="J16" s="43">
+        <f t="shared" si="2"/>
+        <v>10.240000000000109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="42">
+        <v>43891</v>
+      </c>
+      <c r="B17" s="18">
+        <v>170</v>
+      </c>
+      <c r="C17" s="18">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="D17" s="18">
+        <f t="shared" si="3"/>
+        <v>149.20000000000002</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" si="4"/>
+        <v>166.79999999999998</v>
+      </c>
+      <c r="F17" s="68">
+        <f t="shared" si="5"/>
+        <v>2.1999999999999957</v>
+      </c>
+      <c r="G17" s="43">
+        <f t="shared" si="6"/>
+        <v>168.99999999999997</v>
+      </c>
+      <c r="H17" s="71">
+        <f t="shared" si="0"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="I17" s="43">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="J17" s="43">
+        <f t="shared" si="2"/>
+        <v>10.240000000000109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="42">
+        <v>43922</v>
+      </c>
+      <c r="B18" s="18">
+        <v>160</v>
+      </c>
+      <c r="C18" s="18">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+      <c r="D18" s="18">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="E18" s="43">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="F18" s="68">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="43">
+        <f t="shared" si="6"/>
+        <v>178</v>
+      </c>
+      <c r="H18" s="71">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+      <c r="I18" s="43">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J18" s="43">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="42">
+        <v>43952</v>
+      </c>
+      <c r="B19" s="18">
+        <v>175</v>
+      </c>
+      <c r="C19" s="18">
+        <f t="shared" si="3"/>
+        <v>163</v>
+      </c>
+      <c r="D19" s="18">
+        <f t="shared" si="3"/>
+        <v>167</v>
+      </c>
+      <c r="E19" s="43">
+        <f t="shared" si="4"/>
+        <v>159</v>
+      </c>
+      <c r="F19" s="68">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="G19" s="43">
+        <f t="shared" si="6"/>
+        <v>158</v>
+      </c>
+      <c r="H19" s="71">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I19" s="43">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J19" s="43">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="42">
+        <v>43983</v>
+      </c>
+      <c r="B20" s="18">
+        <v>190</v>
+      </c>
+      <c r="C20" s="18">
+        <f t="shared" si="3"/>
+        <v>178</v>
+      </c>
+      <c r="D20" s="18">
+        <f t="shared" si="3"/>
+        <v>166</v>
+      </c>
+      <c r="E20" s="43">
+        <f t="shared" si="4"/>
+        <v>190</v>
+      </c>
+      <c r="F20" s="68">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G20" s="43">
+        <f t="shared" si="6"/>
+        <v>193</v>
+      </c>
+      <c r="H20" s="71">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="42">
+        <v>44013</v>
+      </c>
+      <c r="B21" s="18">
+        <v>150</v>
+      </c>
+      <c r="C21" s="18">
+        <f t="shared" si="3"/>
+        <v>182</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" si="3"/>
+        <v>178.8</v>
+      </c>
+      <c r="E21" s="43">
+        <f t="shared" si="4"/>
+        <v>185.2</v>
+      </c>
+      <c r="F21" s="68">
+        <f t="shared" si="5"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="G21" s="43">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="H21" s="71">
+        <f t="shared" si="0"/>
+        <v>-35.199999999999989</v>
+      </c>
+      <c r="I21" s="43">
+        <f t="shared" si="1"/>
+        <v>35.199999999999989</v>
+      </c>
+      <c r="J21" s="43">
+        <f t="shared" si="2"/>
+        <v>1239.0399999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="42">
+        <v>44044</v>
+      </c>
+      <c r="B22" s="18">
+        <v>165</v>
+      </c>
+      <c r="C22" s="18">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="D22" s="18">
+        <f t="shared" si="3"/>
+        <v>176.2</v>
+      </c>
+      <c r="E22" s="43">
+        <f t="shared" si="4"/>
+        <v>129.80000000000001</v>
+      </c>
+      <c r="F22" s="68">
+        <f t="shared" si="5"/>
+        <v>-5.7999999999999972</v>
+      </c>
+      <c r="G22" s="43">
+        <f t="shared" si="6"/>
+        <v>124.00000000000001</v>
+      </c>
+      <c r="H22" s="71">
+        <f t="shared" si="0"/>
+        <v>35.199999999999989</v>
+      </c>
+      <c r="I22" s="43">
+        <f t="shared" si="1"/>
+        <v>35.199999999999989</v>
+      </c>
+      <c r="J22" s="43">
+        <f t="shared" si="2"/>
+        <v>1239.0399999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="42">
+        <v>44075</v>
+      </c>
+      <c r="B23" s="18">
+        <v>160</v>
+      </c>
+      <c r="C23" s="18">
+        <f t="shared" si="3"/>
+        <v>164</v>
+      </c>
+      <c r="D23" s="18">
+        <f t="shared" si="3"/>
+        <v>155.20000000000002</v>
+      </c>
+      <c r="E23" s="43">
+        <f t="shared" si="4"/>
+        <v>172.79999999999998</v>
+      </c>
+      <c r="F23" s="68">
+        <f t="shared" si="5"/>
+        <v>2.1999999999999957</v>
+      </c>
+      <c r="G23" s="43">
+        <f t="shared" si="6"/>
+        <v>174.99999999999997</v>
+      </c>
+      <c r="H23" s="71">
+        <f t="shared" si="0"/>
+        <v>-12.799999999999983</v>
+      </c>
+      <c r="I23" s="43">
+        <f t="shared" si="1"/>
+        <v>12.799999999999983</v>
+      </c>
+      <c r="J23" s="43">
+        <f t="shared" si="2"/>
+        <v>163.83999999999958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="42">
+        <v>44105</v>
+      </c>
+      <c r="B24" s="18">
+        <v>170</v>
+      </c>
+      <c r="C24" s="18">
+        <f t="shared" si="3"/>
+        <v>162</v>
+      </c>
+      <c r="D24" s="18">
+        <f t="shared" si="3"/>
+        <v>163.60000000000002</v>
+      </c>
+      <c r="E24" s="43">
+        <f t="shared" si="4"/>
+        <v>160.39999999999998</v>
+      </c>
+      <c r="F24" s="68">
+        <f t="shared" si="5"/>
+        <v>-0.40000000000000568</v>
+      </c>
+      <c r="G24" s="43">
+        <f t="shared" si="6"/>
+        <v>159.99999999999997</v>
+      </c>
+      <c r="H24" s="71">
+        <f t="shared" si="0"/>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="I24" s="43">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000227</v>
+      </c>
+      <c r="J24" s="43">
+        <f t="shared" si="2"/>
+        <v>92.160000000000437</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="42">
+        <v>44136</v>
+      </c>
+      <c r="B25" s="18">
+        <v>190</v>
+      </c>
+      <c r="C25" s="18">
+        <f t="shared" si="3"/>
+        <v>174</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" si="3"/>
+        <v>164.4</v>
+      </c>
+      <c r="E25" s="43">
+        <f t="shared" si="4"/>
+        <v>183.6</v>
+      </c>
+      <c r="F25" s="68">
+        <f t="shared" si="5"/>
+        <v>2.3999999999999986</v>
+      </c>
+      <c r="G25" s="43">
+        <f t="shared" si="6"/>
+        <v>186</v>
+      </c>
+      <c r="H25" s="71">
+        <f t="shared" si="0"/>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="I25" s="43">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000057</v>
+      </c>
+      <c r="J25" s="43">
+        <f t="shared" si="2"/>
+        <v>40.960000000000072</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="42">
+        <v>44166</v>
+      </c>
+      <c r="B26" s="18">
+        <v>180</v>
+      </c>
+      <c r="C26" s="18">
+        <f>0.2*B26 +( (1-0.2)*B25)</f>
+        <v>188</v>
+      </c>
+      <c r="D26" s="18">
+        <f>0.2*C26 +( (1-0.2)*C25)</f>
+        <v>176.8</v>
+      </c>
+      <c r="E26" s="43">
+        <f>(2*C26)-D26</f>
+        <v>199.2</v>
+      </c>
+      <c r="F26" s="68">
+        <f t="shared" si="5"/>
+        <v>2.7999999999999972</v>
+      </c>
+      <c r="G26" s="43">
+        <f>E26+F26</f>
+        <v>202</v>
+      </c>
+      <c r="H26" s="71">
+        <f t="shared" si="0"/>
+        <v>-19.199999999999989</v>
+      </c>
+      <c r="I26" s="43">
+        <f t="shared" si="1"/>
+        <v>19.199999999999989</v>
+      </c>
+      <c r="J26" s="43">
+        <f t="shared" si="2"/>
+        <v>368.63999999999959</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5122,7 +7421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
@@ -5326,13 +7625,13 @@
         <v>9</v>
       </c>
       <c r="H5" s="21"/>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
       <c r="N5" s="24"/>
       <c r="O5" s="30" t="s">
         <v>52</v>
@@ -5363,14 +7662,14 @@
         <v>16</v>
       </c>
       <c r="H6" s="21"/>
-      <c r="I6" s="57">
+      <c r="I6" s="49">
         <f>((32*L2) - (J2*K2))/((32*M2)-(K2*K2))</f>
         <v>168.81488269794721</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
       <c r="N6" s="27"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -5398,11 +7697,11 @@
         <v>25</v>
       </c>
       <c r="H7" s="21"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
       <c r="N7" s="27"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -5456,11 +7755,11 @@
         <v>49</v>
       </c>
       <c r="H9" s="21"/>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
       <c r="N9" s="29"/>
       <c r="O9" s="28" t="s">
         <v>51</v>
@@ -5491,12 +7790,12 @@
         <v>64</v>
       </c>
       <c r="H10" s="21"/>
-      <c r="I10" s="55">
+      <c r="I10" s="52">
         <f>(J2-(I6*K2))/32</f>
         <v>4598.806818181818</v>
       </c>
-      <c r="J10" s="58"/>
-      <c r="K10" s="56"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="54"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
@@ -5549,11 +7848,11 @@
         <v>100</v>
       </c>
       <c r="H12" s="21"/>
-      <c r="I12" s="54" t="s">
+      <c r="I12" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
@@ -5583,11 +7882,11 @@
       <c r="I13" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="55">
+      <c r="J13" s="52">
         <f>I10+(I6*33)</f>
         <v>10169.697947214076</v>
       </c>
-      <c r="K13" s="56"/>
+      <c r="K13" s="54"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
@@ -5617,15 +7916,15 @@
       <c r="I14" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="55">
+      <c r="J14" s="52">
         <f>I10+(I6*34)</f>
         <v>10338.512829912022</v>
       </c>
-      <c r="K14" s="56"/>
-      <c r="N14" s="48" t="s">
+      <c r="K14" s="54"/>
+      <c r="N14" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="48"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
@@ -5655,11 +7954,11 @@
       <c r="I15" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="55">
+      <c r="J15" s="52">
         <f>I10+(I6*35)</f>
         <v>10507.327712609971</v>
       </c>
-      <c r="K15" s="56"/>
+      <c r="K15" s="54"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -5686,11 +7985,11 @@
         <v>196</v>
       </c>
       <c r="H16" s="21"/>
-      <c r="J16" s="62">
+      <c r="J16" s="50">
         <f>I10+(I6*36)</f>
         <v>10676.142595307918</v>
       </c>
-      <c r="K16" s="62"/>
+      <c r="K16" s="50"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
@@ -5743,12 +8042,12 @@
         <v>256</v>
       </c>
       <c r="H18" s="21"/>
-      <c r="I18" s="51" t="s">
+      <c r="I18" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
@@ -5775,19 +8074,19 @@
         <v>289</v>
       </c>
       <c r="H19" s="21"/>
-      <c r="I19" s="60" t="s">
+      <c r="I19" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="60"/>
-      <c r="K19" s="57">
+      <c r="J19" s="59"/>
+      <c r="K19" s="49">
         <f>(AVERAGE(D10,D22))/J3</f>
         <v>0.7712630038026107</v>
       </c>
-      <c r="L19" s="57"/>
-      <c r="N19" s="48" t="s">
+      <c r="L19" s="49"/>
+      <c r="N19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="O19" s="48"/>
+      <c r="O19" s="55"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
@@ -5814,19 +8113,19 @@
         <v>324</v>
       </c>
       <c r="H20" s="21"/>
-      <c r="I20" s="61" t="s">
+      <c r="I20" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="61"/>
-      <c r="K20" s="57">
+      <c r="J20" s="60"/>
+      <c r="K20" s="49">
         <f>(AVERAGE(D11,D23))/J3</f>
         <v>0.89266936343083836</v>
       </c>
-      <c r="L20" s="57"/>
-      <c r="N20" s="49" t="s">
+      <c r="L20" s="49"/>
+      <c r="N20" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="O20" s="49"/>
+      <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
@@ -5853,17 +8152,17 @@
         <v>361</v>
       </c>
       <c r="H21" s="21"/>
-      <c r="I21" s="61" t="s">
+      <c r="I21" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J21" s="61"/>
-      <c r="K21" s="57">
+      <c r="J21" s="60"/>
+      <c r="K21" s="49">
         <f>(AVERAGE(D12,D24))/J3</f>
         <v>1.1478860429461137</v>
       </c>
-      <c r="L21" s="57"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
@@ -5890,11 +8189,11 @@
         <v>400</v>
       </c>
       <c r="H22" s="21"/>
-      <c r="K22" s="57">
+      <c r="K22" s="49">
         <f>(AVERAGE(D13,D25))/J3</f>
         <v>0.71894462393998981</v>
       </c>
-      <c r="L22" s="57"/>
+      <c r="L22" s="49"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
@@ -5921,16 +8220,16 @@
         <v>441</v>
       </c>
       <c r="H23" s="21"/>
-      <c r="I23" s="54" t="s">
+      <c r="I23" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="N23" s="48" t="s">
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="N23" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="O23" s="48"/>
+      <c r="O23" s="55"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
@@ -5957,19 +8256,19 @@
         <v>484</v>
       </c>
       <c r="H24" s="21"/>
-      <c r="I24" s="60" t="s">
+      <c r="I24" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="60"/>
-      <c r="K24" s="57">
+      <c r="J24" s="59"/>
+      <c r="K24" s="49">
         <f>K19*J13</f>
         <v>7843.5117865335715</v>
       </c>
-      <c r="L24" s="57"/>
-      <c r="N24" s="50" t="s">
+      <c r="L24" s="49"/>
+      <c r="N24" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="50"/>
+      <c r="O24" s="62"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
@@ -5996,15 +8295,15 @@
         <v>529</v>
       </c>
       <c r="H25" s="21"/>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="61"/>
-      <c r="K25" s="57">
-        <f t="shared" ref="K25:K38" si="2">K20*J14</f>
+      <c r="J25" s="60"/>
+      <c r="K25" s="49">
+        <f t="shared" ref="K25:K26" si="2">K20*J14</f>
         <v>9228.8736666991208</v>
       </c>
-      <c r="L25" s="57"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
@@ -6031,15 +8330,15 @@
         <v>576</v>
       </c>
       <c r="H26" s="21"/>
-      <c r="I26" s="61" t="s">
+      <c r="I26" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="J26" s="61"/>
-      <c r="K26" s="57">
+      <c r="J26" s="60"/>
+      <c r="K26" s="49">
         <f t="shared" si="2"/>
         <v>12061.2148299659</v>
       </c>
-      <c r="L26" s="57"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="18">
@@ -6066,11 +8365,11 @@
         <v>625</v>
       </c>
       <c r="H27" s="21"/>
-      <c r="K27" s="57">
+      <c r="K27" s="49">
         <f>K22*J16</f>
         <v>7675.5553233133578</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="18">
@@ -6274,14 +8573,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I6:M7"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="I18:L18"/>
     <mergeCell ref="I23:L23"/>
@@ -6297,13 +8595,14 @@
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="N23:O23"/>
     <mergeCell ref="N20:O21"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M7"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -6315,7 +8614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J11" sqref="J11:L11"/>
     </sheetView>
   </sheetViews>
@@ -6331,15 +8630,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
@@ -6507,12 +8806,12 @@
         <f t="shared" si="1"/>
         <v>625</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
@@ -6541,12 +8840,12 @@
       <c r="I7" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="45">
+      <c r="J7" s="64">
         <f>J3/32</f>
         <v>7215.4375</v>
       </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="47"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
@@ -6622,12 +8921,12 @@
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="18">
@@ -6656,12 +8955,12 @@
       <c r="I11" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="45">
+      <c r="J11" s="64">
         <f>L3/M3</f>
         <v>84.407441348973606</v>
       </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="47"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="18">
@@ -6712,12 +9011,12 @@
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="I13" s="54" t="s">
+      <c r="I13" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
@@ -6746,12 +9045,12 @@
       <c r="I14" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="64">
         <f>J7+(J11*33)</f>
         <v>10000.883064516129</v>
       </c>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
@@ -6780,12 +9079,12 @@
       <c r="I15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="45">
+      <c r="J15" s="64">
         <f>J7+(J11*33)</f>
         <v>10000.883064516129</v>
       </c>
-      <c r="K15" s="46"/>
-      <c r="L15" s="47"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
@@ -7272,15 +9571,15 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="59"/>
-      <c r="C42" s="59"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
